--- a/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2024/Thang12/02.BaoGiaBH/BG_NamAnh_171224.xlsx
+++ b/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2024/Thang12/02.BaoGiaBH/BG_NamAnh_171224.xlsx
@@ -594,6 +594,64 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -612,6 +670,33 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
@@ -620,91 +705,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1063,7 +1063,7 @@
   <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="84" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1087,86 +1087,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34"/>
-      <c r="B1" s="35"/>
+      <c r="A1" s="54"/>
+      <c r="B1" s="55"/>
       <c r="C1" s="31"/>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="63"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="65"/>
     </row>
     <row r="2" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="32"/>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="32"/>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="68"/>
     </row>
     <row r="4" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="33"/>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="42"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="71"/>
     </row>
     <row r="5" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="43" t="s">
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="45"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="43"/>
     </row>
     <row r="6" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="2"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -1174,13 +1174,13 @@
     </row>
     <row r="7" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
       <c r="G7" s="3"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1250,50 +1250,50 @@
       <c r="AA10" s="4"/>
     </row>
     <row r="11" spans="1:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55">
+      <c r="A11" s="34">
         <v>1</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="56">
+      <c r="H11" s="35">
         <v>1</v>
       </c>
-      <c r="I11" s="57">
+      <c r="I11" s="36">
         <v>140000</v>
       </c>
-      <c r="J11" s="57">
+      <c r="J11" s="36">
         <f>SUM(H11*I11)</f>
         <v>140000</v>
       </c>
       <c r="AA11" s="4"/>
     </row>
     <row r="12" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="59">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="37">
         <f>SUM(J11:J11)</f>
         <v>140000</v>
       </c>
@@ -1314,10 +1314,10 @@
     </row>
     <row r="14" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -1331,30 +1331,30 @@
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="28"/>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
       <c r="AA15" s="4"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47" t="s">
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
       <c r="AA16" s="4"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
@@ -1412,20 +1412,20 @@
       <c r="AA20" s="4"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46" t="s">
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
       <c r="AA21" s="4"/>
     </row>
     <row r="22" spans="1:27" ht="17.25" x14ac:dyDescent="0.25">
@@ -1503,6 +1503,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="16">
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D4:J4"/>
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="E5:J5"/>
     <mergeCell ref="F21:J21"/>
@@ -1514,11 +1519,6 @@
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="D4:J4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
